--- a/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.418702045801578</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.094762930259992</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>30.28153750440513</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>34.18530497193997</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.03314644783922</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>25.32219816214197</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>26.66260393497041</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>10.92964511976338</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2.473739064788027</v>
+      </c>
+      <c r="D3">
+        <v>3.220122210087716</v>
+      </c>
+      <c r="E3">
+        <v>27.96103546709667</v>
+      </c>
+      <c r="F3">
+        <v>32.24812699484242</v>
+      </c>
+      <c r="G3">
+        <v>2.046300300978385</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>24.01440817298164</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>24.73647677630547</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>11.27479131761819</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2.507242043044077</v>
+      </c>
+      <c r="D4">
+        <v>3.300031289418823</v>
+      </c>
+      <c r="E4">
+        <v>26.48400286601753</v>
+      </c>
+      <c r="F4">
+        <v>31.05948089076288</v>
+      </c>
+      <c r="G4">
+        <v>2.054482061064396</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>23.21946998688944</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>23.49810123493354</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>11.48745963353902</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2.520846468679267</v>
+      </c>
+      <c r="D5">
+        <v>3.333252986616443</v>
+      </c>
+      <c r="E5">
+        <v>25.86821074607897</v>
+      </c>
+      <c r="F5">
+        <v>30.5754628762722</v>
+      </c>
+      <c r="G5">
+        <v>2.057848024129727</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>22.89764077888545</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>22.97906608494521</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>11.5744451100059</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2.52310324967113</v>
+      </c>
+      <c r="D6">
+        <v>3.338807276349614</v>
+      </c>
+      <c r="E6">
+        <v>25.76509962083133</v>
+      </c>
+      <c r="F6">
+        <v>30.49512186901633</v>
+      </c>
+      <c r="G6">
+        <v>2.058409007738001</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>22.8443333380831</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>22.89200146205238</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>11.58891203782725</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2.507425681121612</v>
+      </c>
+      <c r="D7">
+        <v>3.300476752829672</v>
+      </c>
+      <c r="E7">
+        <v>26.47575525049908</v>
+      </c>
+      <c r="F7">
+        <v>31.0529514462138</v>
+      </c>
+      <c r="G7">
+        <v>2.054527320084619</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>23.21512093932375</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>23.49116006809236</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>11.48863128222432</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2.4377542134414</v>
+      </c>
+      <c r="D8">
+        <v>3.137319893674663</v>
+      </c>
+      <c r="E8">
+        <v>29.4917865748635</v>
+      </c>
+      <c r="F8">
+        <v>33.51725267856803</v>
+      </c>
+      <c r="G8">
+        <v>2.037663483754772</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>24.86962555751434</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>26.00980404191959</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>11.04858143654053</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2.297656789595766</v>
+      </c>
+      <c r="D9">
+        <v>2.846120435091254</v>
+      </c>
+      <c r="E9">
+        <v>35.03141371858663</v>
+      </c>
+      <c r="F9">
+        <v>38.35785280597084</v>
+      </c>
+      <c r="G9">
+        <v>2.005148183586687</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>28.17979781553495</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>30.52582615870959</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>10.18468102411197</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2.190933019547747</v>
+      </c>
+      <c r="D10">
+        <v>2.661406621906662</v>
+      </c>
+      <c r="E10">
+        <v>38.93955656944988</v>
+      </c>
+      <c r="F10">
+        <v>42.1392843643997</v>
+      </c>
+      <c r="G10">
+        <v>1.981131407527364</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>30.93188469758457</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>33.61691404571213</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>9.538150150361544</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2.141199178924077</v>
+      </c>
+      <c r="D11">
+        <v>2.588071956492773</v>
+      </c>
+      <c r="E11">
+        <v>40.70161639035989</v>
+      </c>
+      <c r="F11">
+        <v>43.91522954056137</v>
+      </c>
+      <c r="G11">
+        <v>1.970045823435651</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>32.27073296725545</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>34.98244527004154</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>9.238375259360572</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2.122170273495447</v>
+      </c>
+      <c r="D12">
+        <v>2.562387901826268</v>
+      </c>
+      <c r="E12">
+        <v>41.36867748460616</v>
+      </c>
+      <c r="F12">
+        <v>44.5886694928079</v>
+      </c>
+      <c r="G12">
+        <v>1.965811008288054</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>32.77793812168204</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>35.49458408427132</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>9.123728361526275</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2.126277528551489</v>
+      </c>
+      <c r="D13">
+        <v>2.567815862954133</v>
+      </c>
+      <c r="E13">
+        <v>41.22498397913439</v>
+      </c>
+      <c r="F13">
+        <v>44.44356584408445</v>
+      </c>
+      <c r="G13">
+        <v>1.966724949480847</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>32.66867347642307</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>35.38449028061201</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>9.14847546299457</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2.13963770542583</v>
+      </c>
+      <c r="D14">
+        <v>2.585913287835098</v>
+      </c>
+      <c r="E14">
+        <v>40.75648607680603</v>
+      </c>
+      <c r="F14">
+        <v>43.97060637211086</v>
+      </c>
+      <c r="G14">
+        <v>1.969698253737028</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>32.31244986411819</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>35.02467289065005</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>9.228967821049789</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>2.147795056596649</v>
+      </c>
+      <c r="D15">
+        <v>2.597289640517642</v>
+      </c>
+      <c r="E15">
+        <v>40.46956262046451</v>
+      </c>
+      <c r="F15">
+        <v>43.68107129497633</v>
+      </c>
+      <c r="G15">
+        <v>1.971514212308482</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>32.09431567734502</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>34.80365797406427</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>9.278114403208884</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2.194157102151781</v>
+      </c>
+      <c r="D16">
+        <v>2.66645716888609</v>
+      </c>
+      <c r="E16">
+        <v>38.82425091621501</v>
+      </c>
+      <c r="F16">
+        <v>42.02327235427592</v>
+      </c>
+      <c r="G16">
+        <v>1.981851530594632</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>30.84435524036786</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>33.52692744908303</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>9.557601606507495</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2.22227557806302</v>
+      </c>
+      <c r="D17">
+        <v>2.711963011275512</v>
+      </c>
+      <c r="E17">
+        <v>37.81219610699114</v>
+      </c>
+      <c r="F17">
+        <v>41.00640689143567</v>
+      </c>
+      <c r="G17">
+        <v>1.988143106297255</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>30.07673859619619</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>32.73386519986357</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>9.727401128214094</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2.238338405307698</v>
+      </c>
+      <c r="D18">
+        <v>2.739100991515743</v>
+      </c>
+      <c r="E18">
+        <v>37.22845560440252</v>
+      </c>
+      <c r="F18">
+        <v>40.42118733983916</v>
+      </c>
+      <c r="G18">
+        <v>1.991747756452648</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>29.63461583862031</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>32.27383147141353</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>9.824553958314967</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2.243758940014236</v>
+      </c>
+      <c r="D19">
+        <v>2.748441215205164</v>
+      </c>
+      <c r="E19">
+        <v>37.03047494601547</v>
+      </c>
+      <c r="F19">
+        <v>40.22294901954381</v>
+      </c>
+      <c r="G19">
+        <v>1.992966184607116</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>29.48478906795147</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>32.11738055544158</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>9.857369067408763</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>2.219293923331672</v>
+      </c>
+      <c r="D20">
+        <v>2.707015645381804</v>
+      </c>
+      <c r="E20">
+        <v>37.92008660676933</v>
+      </c>
+      <c r="F20">
+        <v>41.11468145730498</v>
+      </c>
+      <c r="G20">
+        <v>1.987474907741211</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>30.15850927368541</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>32.81868430972069</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>9.709380696646489</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2.135718981114201</v>
+      </c>
+      <c r="D21">
+        <v>2.580535705771839</v>
+      </c>
+      <c r="E21">
+        <v>40.89408143918439</v>
+      </c>
+      <c r="F21">
+        <v>44.10948848829133</v>
+      </c>
+      <c r="G21">
+        <v>1.968826051053188</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>32.41706597860092</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>35.13048658698396</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>9.205358694450744</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2.079950926879941</v>
+      </c>
+      <c r="D22">
+        <v>2.510434297629285</v>
+      </c>
+      <c r="E22">
+        <v>42.83799785617823</v>
+      </c>
+      <c r="F22">
+        <v>46.07308546194614</v>
+      </c>
+      <c r="G22">
+        <v>1.956413731650193</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>33.89510160830947</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>36.61303746562937</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>8.869180938041016</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2.109826726239624</v>
+      </c>
+      <c r="D23">
+        <v>2.54646645981679</v>
+      </c>
+      <c r="E23">
+        <v>41.7996447765699</v>
+      </c>
+      <c r="F23">
+        <v>45.02395998591411</v>
+      </c>
+      <c r="G23">
+        <v>1.963064383852222</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>33.1056498992115</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>35.8240228089531</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>9.049344858867524</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>2.220642247778585</v>
+      </c>
+      <c r="D24">
+        <v>2.709249348053069</v>
+      </c>
+      <c r="E24">
+        <v>37.87131536935862</v>
+      </c>
+      <c r="F24">
+        <v>41.06573251951641</v>
+      </c>
+      <c r="G24">
+        <v>1.987777038112565</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>30.12154334617529</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>32.78035039896429</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>9.71752916598011</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2.336099091458957</v>
+      </c>
+      <c r="D25">
+        <v>2.9208715660708</v>
+      </c>
+      <c r="E25">
+        <v>33.56676824248292</v>
+      </c>
+      <c r="F25">
+        <v>37.0464316147872</v>
+      </c>
+      <c r="G25">
+        <v>2.01392839748422</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>27.27650402101504</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>29.34648731260395</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>10.4195496842905</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.418702045801578</v>
+        <v>3.655376239133008</v>
       </c>
       <c r="D2">
-        <v>3.094762930259992</v>
+        <v>5.56231141504255</v>
       </c>
       <c r="E2">
-        <v>30.28153750440513</v>
+        <v>16.40242787886047</v>
       </c>
       <c r="F2">
-        <v>34.18530497193997</v>
+        <v>32.36197923181384</v>
       </c>
       <c r="G2">
-        <v>2.03314644783922</v>
+        <v>3.645616317449174</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.32219816214197</v>
+        <v>25.99990240752329</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>26.66260393497041</v>
+        <v>17.96025305051723</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.92964511976338</v>
+        <v>17.47684377557205</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.473739064788027</v>
+        <v>3.663888575478786</v>
       </c>
       <c r="D3">
-        <v>3.220122210087716</v>
+        <v>5.599016170178225</v>
       </c>
       <c r="E3">
-        <v>27.96103546709667</v>
+        <v>15.47254267126582</v>
       </c>
       <c r="F3">
-        <v>32.24812699484242</v>
+        <v>32.03323250404111</v>
       </c>
       <c r="G3">
-        <v>2.046300300978385</v>
+        <v>3.649933239856683</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.01440817298164</v>
+        <v>25.8231708744707</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>24.73647677630547</v>
+        <v>17.35964762128669</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.27479131761819</v>
+        <v>17.55955343139331</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.507242043044077</v>
+        <v>3.669290399719855</v>
       </c>
       <c r="D4">
-        <v>3.300031289418823</v>
+        <v>5.622601975847249</v>
       </c>
       <c r="E4">
-        <v>26.48400286601753</v>
+        <v>14.87820719737089</v>
       </c>
       <c r="F4">
-        <v>31.05948089076288</v>
+        <v>31.84258871122776</v>
       </c>
       <c r="G4">
-        <v>2.054482061064396</v>
+        <v>3.65271492413717</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.21946998688944</v>
+        <v>25.72372004389993</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>23.49810123493354</v>
+        <v>16.9855477180453</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.48745963353902</v>
+        <v>17.61233771403611</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.520846468679267</v>
+        <v>3.671536245968598</v>
       </c>
       <c r="D5">
-        <v>3.333252986616443</v>
+        <v>5.632477152759714</v>
       </c>
       <c r="E5">
-        <v>25.86821074607897</v>
+        <v>14.63040422795807</v>
       </c>
       <c r="F5">
-        <v>30.5754628762722</v>
+        <v>31.7677907102282</v>
       </c>
       <c r="G5">
-        <v>2.057848024129727</v>
+        <v>3.653881593335942</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.89764077888545</v>
+        <v>25.6854973699724</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.97906608494521</v>
+        <v>16.83201961310351</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.5744451100059</v>
+        <v>17.63435313504398</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.52310324967113</v>
+        <v>3.671911873051576</v>
       </c>
       <c r="D6">
-        <v>3.338807276349614</v>
+        <v>5.634132850358406</v>
       </c>
       <c r="E6">
-        <v>25.76509962083133</v>
+        <v>14.58892715342619</v>
       </c>
       <c r="F6">
-        <v>30.49512186901633</v>
+        <v>31.75554713437465</v>
       </c>
       <c r="G6">
-        <v>2.058409007738001</v>
+        <v>3.654077322038594</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.8443333380831</v>
+        <v>25.67929034714063</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.89200146205238</v>
+        <v>16.8064691682354</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.58891203782725</v>
+        <v>17.6380393745426</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.507425681121612</v>
+        <v>3.669320506899929</v>
       </c>
       <c r="D7">
-        <v>3.300476752829672</v>
+        <v>5.622734087892296</v>
       </c>
       <c r="E7">
-        <v>26.47575525049908</v>
+        <v>14.87488754017481</v>
       </c>
       <c r="F7">
-        <v>31.0529514462138</v>
+        <v>31.84156816372516</v>
       </c>
       <c r="G7">
-        <v>2.054527320084619</v>
+        <v>3.652730523983326</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.21512093932375</v>
+        <v>25.72319519933962</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>23.49116006809236</v>
+        <v>16.98348119703811</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.48863128222432</v>
+        <v>17.61263257213921</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.4377542134414</v>
+        <v>3.658275225309121</v>
       </c>
       <c r="D8">
-        <v>3.137319893674663</v>
+        <v>5.574749501829905</v>
       </c>
       <c r="E8">
-        <v>29.4917865748635</v>
+        <v>16.08680457875361</v>
       </c>
       <c r="F8">
-        <v>33.51725267856803</v>
+        <v>32.24634689852449</v>
       </c>
       <c r="G8">
-        <v>2.037663483754772</v>
+        <v>3.647077677994069</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.86962555751434</v>
+        <v>25.93710101778329</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>26.00980404191959</v>
+        <v>17.75441949308822</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.04858143654053</v>
+        <v>17.50494839058367</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.297656789595766</v>
+        <v>3.63798345095792</v>
       </c>
       <c r="D9">
-        <v>2.846120435091254</v>
+        <v>5.488975153392017</v>
       </c>
       <c r="E9">
-        <v>35.03141371858663</v>
+        <v>18.32748483418707</v>
       </c>
       <c r="F9">
-        <v>38.35785280597084</v>
+        <v>33.12551447449925</v>
       </c>
       <c r="G9">
-        <v>2.005148183586687</v>
+        <v>3.637025632574907</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.17979781553495</v>
+        <v>26.42714049814342</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>30.52582615870959</v>
+        <v>19.21356627799341</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.18468102411197</v>
+        <v>17.3095377565088</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.190933019547747</v>
+        <v>3.623878636381131</v>
       </c>
       <c r="D10">
-        <v>2.661406621906662</v>
+        <v>5.431032797347356</v>
       </c>
       <c r="E10">
-        <v>38.93955656944988</v>
+        <v>19.97626867643695</v>
       </c>
       <c r="F10">
-        <v>42.1392843643997</v>
+        <v>33.81834443618711</v>
       </c>
       <c r="G10">
-        <v>1.981131407527364</v>
+        <v>3.630260601879611</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.93188469758457</v>
+        <v>26.82809771281628</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>33.61691404571213</v>
+        <v>20.24101895558892</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.538150150361544</v>
+        <v>17.17541399219309</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.141199178924077</v>
+        <v>3.617630143407416</v>
       </c>
       <c r="D11">
-        <v>2.588071956492773</v>
+        <v>5.405777147758234</v>
       </c>
       <c r="E11">
-        <v>40.70161639035989</v>
+        <v>20.68516370601517</v>
       </c>
       <c r="F11">
-        <v>43.91522954056137</v>
+        <v>34.14252003503439</v>
       </c>
       <c r="G11">
-        <v>1.970045823435651</v>
+        <v>3.627315611095931</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.27073296725545</v>
+        <v>27.01886109253611</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>34.98244527004154</v>
+        <v>20.69652537214765</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.238375259360572</v>
+        <v>17.11641328404041</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.122170273495447</v>
+        <v>3.615287656151758</v>
       </c>
       <c r="D12">
-        <v>2.562387901826268</v>
+        <v>5.396372361408026</v>
       </c>
       <c r="E12">
-        <v>41.36867748460616</v>
+        <v>20.94772850635074</v>
       </c>
       <c r="F12">
-        <v>44.5886694928079</v>
+        <v>34.2664665877734</v>
       </c>
       <c r="G12">
-        <v>1.965811008288054</v>
+        <v>3.626219305021642</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.77793812168204</v>
+        <v>27.09225167364421</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>35.49458408427132</v>
+        <v>20.86714528811873</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.123728361526275</v>
+        <v>17.0943580152426</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.126277528551489</v>
+        <v>3.615791106596433</v>
       </c>
       <c r="D13">
-        <v>2.567815862954133</v>
+        <v>5.398390772145644</v>
       </c>
       <c r="E13">
-        <v>41.22498397913439</v>
+        <v>20.89144131290244</v>
       </c>
       <c r="F13">
-        <v>44.44356584408445</v>
+        <v>34.23972134512016</v>
       </c>
       <c r="G13">
-        <v>1.966724949480847</v>
+        <v>3.626454576029558</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.66867347642307</v>
+        <v>27.07639526691429</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>35.38449028061201</v>
+        <v>20.830484796774</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.14847546299457</v>
+        <v>17.09909528547757</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.13963770542583</v>
+        <v>3.617436953541873</v>
       </c>
       <c r="D14">
-        <v>2.585913287835098</v>
+        <v>5.40500022143312</v>
       </c>
       <c r="E14">
-        <v>40.75648607680603</v>
+        <v>20.7068826626015</v>
       </c>
       <c r="F14">
-        <v>43.97060637211086</v>
+        <v>34.15269399392898</v>
       </c>
       <c r="G14">
-        <v>1.969698253737028</v>
+        <v>3.62722503944578</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.31244986411819</v>
+        <v>27.02487617788888</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>35.02467289065005</v>
+        <v>20.71060072001043</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.228967821049789</v>
+        <v>17.11459304546648</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.147795056596649</v>
+        <v>3.618448152957226</v>
       </c>
       <c r="D15">
-        <v>2.597289640517642</v>
+        <v>5.409069417733359</v>
       </c>
       <c r="E15">
-        <v>40.46956262046451</v>
+        <v>20.5930707571334</v>
       </c>
       <c r="F15">
-        <v>43.68107129497633</v>
+        <v>34.099538786371</v>
       </c>
       <c r="G15">
-        <v>1.971514212308482</v>
+        <v>3.627699427189351</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.09431567734502</v>
+        <v>26.99346781150977</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>34.80365797406427</v>
+        <v>20.63692020267204</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.278114403208884</v>
+        <v>17.12412317703654</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.194157102151781</v>
+        <v>3.624290328577983</v>
       </c>
       <c r="D16">
-        <v>2.66645716888609</v>
+        <v>5.432705535558168</v>
       </c>
       <c r="E16">
-        <v>38.82425091621501</v>
+        <v>19.92911604777793</v>
       </c>
       <c r="F16">
-        <v>42.02327235427592</v>
+        <v>33.79733092600375</v>
       </c>
       <c r="G16">
-        <v>1.981851530594632</v>
+        <v>3.630455716573326</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.84435524036786</v>
+        <v>26.81579497998433</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>33.52692744908303</v>
+        <v>20.21099714354884</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.557601606507495</v>
+        <v>17.17931012378741</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.22227557806302</v>
+        <v>3.627916978581825</v>
       </c>
       <c r="D17">
-        <v>2.711963011275512</v>
+        <v>5.447488214108918</v>
       </c>
       <c r="E17">
-        <v>37.81219610699114</v>
+        <v>19.51129036086107</v>
       </c>
       <c r="F17">
-        <v>41.00640689143567</v>
+        <v>33.61416724030541</v>
       </c>
       <c r="G17">
-        <v>1.988143106297255</v>
+        <v>3.63218042999954</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.07673859619619</v>
+        <v>26.70890624971491</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>32.73386519986357</v>
+        <v>19.94654200236462</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.727401128214094</v>
+        <v>17.21367934551228</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.238338405307698</v>
+        <v>3.630018757986602</v>
       </c>
       <c r="D18">
-        <v>2.739100991515743</v>
+        <v>5.456094573659968</v>
       </c>
       <c r="E18">
-        <v>37.22845560440252</v>
+        <v>19.2670930338906</v>
       </c>
       <c r="F18">
-        <v>40.42118733983916</v>
+        <v>33.50967034971094</v>
       </c>
       <c r="G18">
-        <v>1.991747756452648</v>
+        <v>3.633184915818202</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.63461583862031</v>
+        <v>26.64821733468431</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>32.27383147141353</v>
+        <v>19.79332395438793</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.824553958314967</v>
+        <v>17.23363721895799</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.243758940014236</v>
+        <v>3.630733116595556</v>
       </c>
       <c r="D19">
-        <v>2.748441215205164</v>
+        <v>5.459026347171392</v>
       </c>
       <c r="E19">
-        <v>37.03047494601547</v>
+        <v>19.18374530614908</v>
       </c>
       <c r="F19">
-        <v>40.22294901954381</v>
+        <v>33.47443938413442</v>
       </c>
       <c r="G19">
-        <v>1.992966184607116</v>
+        <v>3.633527164799156</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.48478906795147</v>
+        <v>26.62780639413427</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>32.11738055544158</v>
+        <v>19.74126145212948</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.857369067408763</v>
+        <v>17.24042725081518</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.219293923331672</v>
+        <v>3.627529280881727</v>
       </c>
       <c r="D20">
-        <v>2.707015645381804</v>
+        <v>5.445903831779709</v>
       </c>
       <c r="E20">
-        <v>37.92008660676933</v>
+        <v>19.55616939324701</v>
       </c>
       <c r="F20">
-        <v>41.11468145730498</v>
+        <v>33.63357770441638</v>
       </c>
       <c r="G20">
-        <v>1.987474907741211</v>
+        <v>3.63199554114328</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.15850927368541</v>
+        <v>26.72020326361186</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>32.81868430972069</v>
+        <v>19.97480985676576</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.709380696646489</v>
+        <v>17.21000107724877</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.135718981114201</v>
+        <v>3.61695288927401</v>
       </c>
       <c r="D21">
-        <v>2.580535705771839</v>
+        <v>5.403054547525046</v>
       </c>
       <c r="E21">
-        <v>40.89408143918439</v>
+        <v>20.76125124485752</v>
       </c>
       <c r="F21">
-        <v>44.10948848829133</v>
+        <v>34.17822464445155</v>
       </c>
       <c r="G21">
-        <v>1.968826051053188</v>
+        <v>3.626998223965317</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.41706597860092</v>
+        <v>27.03997771643891</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>35.13048658698396</v>
+        <v>20.74586553651288</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.205358694450744</v>
+        <v>17.11003320746459</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.079950926879941</v>
+        <v>3.610178434733113</v>
       </c>
       <c r="D22">
-        <v>2.510434297629285</v>
+        <v>5.375976972005397</v>
       </c>
       <c r="E22">
-        <v>42.83799785617823</v>
+        <v>21.51459597477855</v>
       </c>
       <c r="F22">
-        <v>46.07308546194614</v>
+        <v>34.54105865263053</v>
       </c>
       <c r="G22">
-        <v>1.956413731650193</v>
+        <v>3.623842271099748</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.89510160830947</v>
+        <v>27.25566198003501</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>36.61303746562937</v>
+        <v>21.23883043158344</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.869180938041016</v>
+        <v>17.04637025812803</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.109826726239624</v>
+        <v>3.613781625410042</v>
       </c>
       <c r="D23">
-        <v>2.54646645981679</v>
+        <v>5.390343811275343</v>
       </c>
       <c r="E23">
-        <v>41.7996447765699</v>
+        <v>21.1156426129839</v>
       </c>
       <c r="F23">
-        <v>45.02395998591411</v>
+        <v>34.34681379340025</v>
       </c>
       <c r="G23">
-        <v>1.963064383852222</v>
+        <v>3.625516639236346</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.1056498992115</v>
+        <v>27.13995214400629</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>35.8240228089531</v>
+        <v>20.97677757664773</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.049344858867524</v>
+        <v>17.08019620409248</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.220642247778585</v>
+        <v>3.627704506742857</v>
       </c>
       <c r="D24">
-        <v>2.709249348053069</v>
+        <v>5.44661979590998</v>
       </c>
       <c r="E24">
-        <v>37.87131536935862</v>
+        <v>19.53589199416734</v>
       </c>
       <c r="F24">
-        <v>41.06573251951641</v>
+        <v>33.62479971393388</v>
       </c>
       <c r="G24">
-        <v>1.987777038112565</v>
+        <v>3.632079089125183</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.12154334617529</v>
+        <v>26.71509350376529</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>32.78035039896429</v>
+        <v>19.96203362051194</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.71752916598011</v>
+        <v>17.21166340370804</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.336099091458957</v>
+        <v>3.643329641852024</v>
       </c>
       <c r="D25">
-        <v>2.9208715660708</v>
+        <v>5.511288347934626</v>
       </c>
       <c r="E25">
-        <v>33.56676824248292</v>
+        <v>17.70018660641737</v>
       </c>
       <c r="F25">
-        <v>37.0464316147872</v>
+        <v>32.87904558090899</v>
       </c>
       <c r="G25">
-        <v>2.01392839748422</v>
+        <v>3.639635365399462</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.27650402101504</v>
+        <v>26.28721686724907</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>29.34648731260395</v>
+        <v>18.82583464165293</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.4195496842905</v>
+        <v>17.36073124975275</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.655376239133008</v>
+        <v>2.418702045801712</v>
       </c>
       <c r="D2">
-        <v>5.56231141504255</v>
+        <v>3.094762930259984</v>
       </c>
       <c r="E2">
-        <v>16.40242787886047</v>
+        <v>30.28153750440514</v>
       </c>
       <c r="F2">
-        <v>32.36197923181384</v>
+        <v>34.18530497193999</v>
       </c>
       <c r="G2">
-        <v>3.645616317449174</v>
+        <v>2.033146447839357</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.99990240752329</v>
+        <v>25.32219816214197</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.96025305051723</v>
+        <v>26.66260393497049</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.47684377557205</v>
+        <v>10.92964511976332</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.663888575478786</v>
+        <v>2.473739064787893</v>
       </c>
       <c r="D3">
-        <v>5.599016170178225</v>
+        <v>3.220122210087727</v>
       </c>
       <c r="E3">
-        <v>15.47254267126582</v>
+        <v>27.96103546709672</v>
       </c>
       <c r="F3">
-        <v>32.03323250404111</v>
+        <v>32.24812699484244</v>
       </c>
       <c r="G3">
-        <v>3.649933239856683</v>
+        <v>2.046300300978521</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.8231708744707</v>
+        <v>24.01440817298166</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.35964762128669</v>
+        <v>24.7364767763055</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.55955343139331</v>
+        <v>11.27479131761819</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.669290399719855</v>
+        <v>2.507242043044336</v>
       </c>
       <c r="D4">
-        <v>5.622601975847249</v>
+        <v>3.30003128941895</v>
       </c>
       <c r="E4">
-        <v>14.87820719737089</v>
+        <v>26.48400286601755</v>
       </c>
       <c r="F4">
-        <v>31.84258871122776</v>
+        <v>31.05948089076287</v>
       </c>
       <c r="G4">
-        <v>3.65271492413717</v>
+        <v>2.054482061064662</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.72372004389993</v>
+        <v>23.21946998688944</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.9855477180453</v>
+        <v>23.49810123493348</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.61233771403611</v>
+        <v>11.48745963353909</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.671536245968598</v>
+        <v>2.52084646867914</v>
       </c>
       <c r="D5">
-        <v>5.632477152759714</v>
+        <v>3.333252986616388</v>
       </c>
       <c r="E5">
-        <v>14.63040422795807</v>
+        <v>25.86821074607889</v>
       </c>
       <c r="F5">
-        <v>31.7677907102282</v>
+        <v>30.57546287627226</v>
       </c>
       <c r="G5">
-        <v>3.653881593335942</v>
+        <v>2.057848024129729</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.6854973699724</v>
+        <v>22.89764077888552</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.83201961310351</v>
+        <v>22.97906608494511</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.63435313504398</v>
+        <v>11.57444511000594</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.671911873051576</v>
+        <v>2.523103249671528</v>
       </c>
       <c r="D6">
-        <v>5.634132850358406</v>
+        <v>3.338807276349856</v>
       </c>
       <c r="E6">
-        <v>14.58892715342619</v>
+        <v>25.7650996208313</v>
       </c>
       <c r="F6">
-        <v>31.75554713437465</v>
+        <v>30.49512186901638</v>
       </c>
       <c r="G6">
-        <v>3.654077322038594</v>
+        <v>2.058409007737871</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.67929034714063</v>
+        <v>22.84433333808314</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.8064691682354</v>
+        <v>22.89200146205242</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.6380393745426</v>
+        <v>11.58891203782726</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.669320506899929</v>
+        <v>2.50742568112174</v>
       </c>
       <c r="D7">
-        <v>5.622734087892296</v>
+        <v>3.300476752829665</v>
       </c>
       <c r="E7">
-        <v>14.87488754017481</v>
+        <v>26.47575525049904</v>
       </c>
       <c r="F7">
-        <v>31.84156816372516</v>
+        <v>31.05295144621375</v>
       </c>
       <c r="G7">
-        <v>3.652730523983326</v>
+        <v>2.054527320084754</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.72319519933962</v>
+        <v>23.21512093932372</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.98348119703811</v>
+        <v>23.49116006809237</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.61263257213921</v>
+        <v>11.48863128222432</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.658275225309121</v>
+        <v>2.437754213441015</v>
       </c>
       <c r="D8">
-        <v>5.574749501829905</v>
+        <v>3.137319893674604</v>
       </c>
       <c r="E8">
-        <v>16.08680457875361</v>
+        <v>29.49178657486354</v>
       </c>
       <c r="F8">
-        <v>32.24634689852449</v>
+        <v>33.51725267856802</v>
       </c>
       <c r="G8">
-        <v>3.647077677994069</v>
+        <v>2.037663483754904</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.93710101778329</v>
+        <v>24.86962555751433</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.75441949308822</v>
+        <v>26.00980404191968</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.50494839058367</v>
+        <v>11.0485814365405</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.63798345095792</v>
+        <v>2.297656789595897</v>
       </c>
       <c r="D9">
-        <v>5.488975153392017</v>
+        <v>2.846120435091334</v>
       </c>
       <c r="E9">
-        <v>18.32748483418707</v>
+        <v>35.03141371858656</v>
       </c>
       <c r="F9">
-        <v>33.12551447449925</v>
+        <v>38.35785280597069</v>
       </c>
       <c r="G9">
-        <v>3.637025632574907</v>
+        <v>2.005148183586689</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.42714049814342</v>
+        <v>28.17979781553486</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.21356627799341</v>
+        <v>30.52582615870942</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.3095377565088</v>
+        <v>10.18468102411209</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.623878636381131</v>
+        <v>2.190933019547719</v>
       </c>
       <c r="D10">
-        <v>5.431032797347356</v>
+        <v>2.661406621906803</v>
       </c>
       <c r="E10">
-        <v>19.97626867643695</v>
+        <v>38.93955656944973</v>
       </c>
       <c r="F10">
-        <v>33.81834443618711</v>
+        <v>42.13928436439962</v>
       </c>
       <c r="G10">
-        <v>3.630260601879611</v>
+        <v>1.981131407527362</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.82809771281628</v>
+        <v>30.93188469758447</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.24101895558892</v>
+        <v>33.61691404571202</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.17541399219309</v>
+        <v>9.538150150361572</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.617630143407416</v>
+        <v>2.141199178923964</v>
       </c>
       <c r="D11">
-        <v>5.405777147758234</v>
+        <v>2.58807195649276</v>
       </c>
       <c r="E11">
-        <v>20.68516370601517</v>
+        <v>40.70161639035996</v>
       </c>
       <c r="F11">
-        <v>34.14252003503439</v>
+        <v>43.91522954056137</v>
       </c>
       <c r="G11">
-        <v>3.627315611095931</v>
+        <v>1.970045823435784</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.01886109253611</v>
+        <v>32.27073296725545</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.69652537214765</v>
+        <v>34.98244527004156</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.11641328404041</v>
+        <v>9.238375259360536</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.615287656151758</v>
+        <v>2.122170273495454</v>
       </c>
       <c r="D12">
-        <v>5.396372361408026</v>
+        <v>2.562387901826317</v>
       </c>
       <c r="E12">
-        <v>20.94772850635074</v>
+        <v>41.36867748460617</v>
       </c>
       <c r="F12">
-        <v>34.2664665877734</v>
+        <v>44.58866949280794</v>
       </c>
       <c r="G12">
-        <v>3.626219305021642</v>
+        <v>1.965811008287781</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.09225167364421</v>
+        <v>32.77793812168205</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.86714528811873</v>
+        <v>35.49458408427135</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.0943580152426</v>
+        <v>9.123728361526245</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.615791106596433</v>
+        <v>2.126277528551615</v>
       </c>
       <c r="D13">
-        <v>5.398390772145644</v>
+        <v>2.567815862954162</v>
       </c>
       <c r="E13">
-        <v>20.89144131290244</v>
+        <v>41.22498397913454</v>
       </c>
       <c r="F13">
-        <v>34.23972134512016</v>
+        <v>44.44356584408454</v>
       </c>
       <c r="G13">
-        <v>3.626454576029558</v>
+        <v>1.966724949480716</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.07639526691429</v>
+        <v>32.66867347642314</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.830484796774</v>
+        <v>35.3844902806121</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.09909528547757</v>
+        <v>9.148475462994437</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.617436953541873</v>
+        <v>2.139637705425822</v>
       </c>
       <c r="D14">
-        <v>5.40500022143312</v>
+        <v>2.585913287835086</v>
       </c>
       <c r="E14">
-        <v>20.7068826626015</v>
+        <v>40.75648607680611</v>
       </c>
       <c r="F14">
-        <v>34.15269399392898</v>
+        <v>43.97060637211104</v>
       </c>
       <c r="G14">
-        <v>3.62722503944578</v>
+        <v>1.969698253736758</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.02487617788888</v>
+        <v>32.31244986411834</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.71060072001043</v>
+        <v>35.02467289065019</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.11459304546648</v>
+        <v>9.228967821049725</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.618448152957226</v>
+        <v>2.147795056596754</v>
       </c>
       <c r="D15">
-        <v>5.409069417733359</v>
+        <v>2.59728964051751</v>
       </c>
       <c r="E15">
-        <v>20.5930707571334</v>
+        <v>40.46956262046449</v>
       </c>
       <c r="F15">
-        <v>34.099538786371</v>
+        <v>43.68107129497627</v>
       </c>
       <c r="G15">
-        <v>3.627699427189351</v>
+        <v>1.971514212308348</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.99346781150977</v>
+        <v>32.09431567734497</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.63692020267204</v>
+        <v>34.80365797406421</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.12412317703654</v>
+        <v>9.278114403208884</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.624290328577983</v>
+        <v>2.194157102151659</v>
       </c>
       <c r="D16">
-        <v>5.432705535558168</v>
+        <v>2.666457168886043</v>
       </c>
       <c r="E16">
-        <v>19.92911604777793</v>
+        <v>38.82425091621501</v>
       </c>
       <c r="F16">
-        <v>33.79733092600375</v>
+        <v>42.02327235427608</v>
       </c>
       <c r="G16">
-        <v>3.630455716573326</v>
+        <v>1.981851530594634</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.81579497998433</v>
+        <v>30.84435524036798</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.21099714354884</v>
+        <v>33.52692744908315</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.17931012378741</v>
+        <v>9.557601606507431</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.627916978581825</v>
+        <v>2.22227557806315</v>
       </c>
       <c r="D17">
-        <v>5.447488214108918</v>
+        <v>2.711963011275556</v>
       </c>
       <c r="E17">
-        <v>19.51129036086107</v>
+        <v>37.81219610699113</v>
       </c>
       <c r="F17">
-        <v>33.61416724030541</v>
+        <v>41.00640689143563</v>
       </c>
       <c r="G17">
-        <v>3.63218042999954</v>
+        <v>1.988143106297119</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.70890624971491</v>
+        <v>30.07673859619614</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.94654200236462</v>
+        <v>32.7338651998635</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.21367934551228</v>
+        <v>9.727401128214128</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.630018757986602</v>
+        <v>2.238338405307827</v>
       </c>
       <c r="D18">
-        <v>5.456094573659968</v>
+        <v>2.739100991515682</v>
       </c>
       <c r="E18">
-        <v>19.2670930338906</v>
+        <v>37.22845560440252</v>
       </c>
       <c r="F18">
-        <v>33.50967034971094</v>
+        <v>40.42118733983916</v>
       </c>
       <c r="G18">
-        <v>3.633184915818202</v>
+        <v>1.991747756452652</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.64821733468431</v>
+        <v>29.63461583862031</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.79332395438793</v>
+        <v>32.27383147141349</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.23363721895799</v>
+        <v>9.824553958314933</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.630733116595556</v>
+        <v>2.243758940014249</v>
       </c>
       <c r="D19">
-        <v>5.459026347171392</v>
+        <v>2.748441215205208</v>
       </c>
       <c r="E19">
-        <v>19.18374530614908</v>
+        <v>37.03047494601546</v>
       </c>
       <c r="F19">
-        <v>33.47443938413442</v>
+        <v>40.22294901954385</v>
       </c>
       <c r="G19">
-        <v>3.633527164799156</v>
+        <v>1.992966184607113</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.62780639413427</v>
+        <v>29.4847890679515</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.74126145212948</v>
+        <v>32.11738055544164</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.24042725081518</v>
+        <v>9.857369067408763</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.627529280881727</v>
+        <v>2.219293923331671</v>
       </c>
       <c r="D20">
-        <v>5.445903831779709</v>
+        <v>2.707015645381743</v>
       </c>
       <c r="E20">
-        <v>19.55616939324701</v>
+        <v>37.92008660676947</v>
       </c>
       <c r="F20">
-        <v>33.63357770441638</v>
+        <v>41.11468145730521</v>
       </c>
       <c r="G20">
-        <v>3.63199554114328</v>
+        <v>1.987474907741076</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.72020326361186</v>
+        <v>30.15850927368557</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.97480985676576</v>
+        <v>32.81868430972091</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.21000107724877</v>
+        <v>9.709380696646328</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.61695288927401</v>
+        <v>2.135718981114336</v>
       </c>
       <c r="D21">
-        <v>5.403054547525046</v>
+        <v>2.580535705771863</v>
       </c>
       <c r="E21">
-        <v>20.76125124485752</v>
+        <v>40.89408143918437</v>
       </c>
       <c r="F21">
-        <v>34.17822464445155</v>
+        <v>44.1094884882914</v>
       </c>
       <c r="G21">
-        <v>3.626998223965317</v>
+        <v>1.968826051053053</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.03997771643891</v>
+        <v>32.41706597860096</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.74586553651288</v>
+        <v>35.13048658698401</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.11003320746459</v>
+        <v>9.205358694450712</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.610178434733113</v>
+        <v>2.079950926880067</v>
       </c>
       <c r="D22">
-        <v>5.375976972005397</v>
+        <v>2.510434297629233</v>
       </c>
       <c r="E22">
-        <v>21.51459597477855</v>
+        <v>42.83799785617822</v>
       </c>
       <c r="F22">
-        <v>34.54105865263053</v>
+        <v>46.07308546194604</v>
       </c>
       <c r="G22">
-        <v>3.623842271099748</v>
+        <v>1.9564137316502</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.25566198003501</v>
+        <v>33.8951016083094</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.23883043158344</v>
+        <v>36.61303746562931</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.04637025812803</v>
+        <v>8.869180938041044</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.613781625410042</v>
+        <v>2.109826726239767</v>
       </c>
       <c r="D23">
-        <v>5.390343811275343</v>
+        <v>2.54646645981679</v>
       </c>
       <c r="E23">
-        <v>21.1156426129839</v>
+        <v>41.79964477656989</v>
       </c>
       <c r="F23">
-        <v>34.34681379340025</v>
+        <v>45.02395998591415</v>
       </c>
       <c r="G23">
-        <v>3.625516639236346</v>
+        <v>1.963064383851956</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.13995214400629</v>
+        <v>33.10564989921153</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.97677757664773</v>
+        <v>35.8240228089531</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.08019620409248</v>
+        <v>9.049344858867526</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.627704506742857</v>
+        <v>2.220642247778449</v>
       </c>
       <c r="D24">
-        <v>5.44661979590998</v>
+        <v>2.709249348053325</v>
       </c>
       <c r="E24">
-        <v>19.53589199416734</v>
+        <v>37.87131536935863</v>
       </c>
       <c r="F24">
-        <v>33.62479971393388</v>
+        <v>41.06573251951634</v>
       </c>
       <c r="G24">
-        <v>3.632079089125183</v>
+        <v>1.987777038112561</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.71509350376529</v>
+        <v>30.12154334617518</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.96203362051194</v>
+        <v>32.78035039896417</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.21166340370804</v>
+        <v>9.717529165980174</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.643329641852024</v>
+        <v>2.336099091459215</v>
       </c>
       <c r="D25">
-        <v>5.511288347934626</v>
+        <v>2.920871566070904</v>
       </c>
       <c r="E25">
-        <v>17.70018660641737</v>
+        <v>33.566768242483</v>
       </c>
       <c r="F25">
-        <v>32.87904558090899</v>
+        <v>37.04643161478726</v>
       </c>
       <c r="G25">
-        <v>3.639635365399462</v>
+        <v>2.013928397484352</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.28721686724907</v>
+        <v>27.27650402101506</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.82583464165293</v>
+        <v>29.34648731260403</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.36073124975275</v>
+        <v>10.41954968429043</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,994 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>2.418702045801712</v>
+        <v>9.265478549016668</v>
       </c>
       <c r="D2">
-        <v>3.094762930259984</v>
+        <v>6.3239157628681</v>
       </c>
       <c r="E2">
-        <v>30.28153750440514</v>
+        <v>12.0963991501857</v>
       </c>
       <c r="F2">
-        <v>34.18530497193999</v>
+        <v>48.81294783194195</v>
       </c>
       <c r="G2">
-        <v>2.033146447839357</v>
+        <v>77.73277523813138</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.267048580782636</v>
       </c>
       <c r="I2">
-        <v>25.32219816214197</v>
+        <v>4.495259252082361</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>20.35774902796464</v>
       </c>
       <c r="K2">
-        <v>26.66260393497049</v>
+        <v>38.78639100763944</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
-        <v>10.92964511976332</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>8.099530740873309</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>2.473739064787893</v>
+        <v>8.843984840840861</v>
       </c>
       <c r="D3">
-        <v>3.220122210087727</v>
+        <v>6.052566375396339</v>
       </c>
       <c r="E3">
-        <v>27.96103546709672</v>
+        <v>11.52306752992272</v>
       </c>
       <c r="F3">
-        <v>32.24812699484244</v>
+        <v>45.84294354829897</v>
       </c>
       <c r="G3">
-        <v>2.046300300978521</v>
+        <v>72.78146236255999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.86669383791875</v>
       </c>
       <c r="I3">
-        <v>24.01440817298166</v>
+        <v>4.111645236163888</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>19.28558782484253</v>
       </c>
       <c r="K3">
-        <v>24.7364767763055</v>
+        <v>36.57622993839982</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
-        <v>11.27479131761819</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>7.777307753546942</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>2.507242043044336</v>
+        <v>8.576603183130159</v>
       </c>
       <c r="D4">
-        <v>3.30003128941895</v>
+        <v>5.878358526799286</v>
       </c>
       <c r="E4">
-        <v>26.48400286601755</v>
+        <v>11.15757997270538</v>
       </c>
       <c r="F4">
-        <v>31.05948089076287</v>
+        <v>43.93274956092078</v>
       </c>
       <c r="G4">
-        <v>2.054482061064662</v>
+        <v>69.58478828257076</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.614169682027363</v>
       </c>
       <c r="I4">
-        <v>23.21946998688944</v>
+        <v>3.870212296893676</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>18.60104532218777</v>
       </c>
       <c r="K4">
-        <v>23.49810123493348</v>
+        <v>35.15606370347242</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>11.48745963353909</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>7.573411228495335</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>2.52084646867914</v>
+        <v>8.460152823248691</v>
       </c>
       <c r="D5">
-        <v>3.333252986616388</v>
+        <v>5.8015233566806</v>
       </c>
       <c r="E5">
-        <v>25.86821074607889</v>
+        <v>11.00161129090455</v>
       </c>
       <c r="F5">
-        <v>30.57546287627226</v>
+        <v>43.11289086400055</v>
       </c>
       <c r="G5">
-        <v>2.057848024129729</v>
+        <v>68.20749617309528</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.508464682036954</v>
       </c>
       <c r="I5">
-        <v>22.89764077888552</v>
+        <v>3.769516569311573</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>18.3076585774652</v>
       </c>
       <c r="K5">
-        <v>22.97906608494511</v>
+        <v>34.54247540710966</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
-        <v>11.57444511000594</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>7.488932654744835</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>2.523103249671528</v>
+        <v>8.434267156667401</v>
       </c>
       <c r="D6">
-        <v>3.338807276349856</v>
+        <v>5.783796645801533</v>
       </c>
       <c r="E6">
-        <v>25.7650996208313</v>
+        <v>10.97105756318889</v>
       </c>
       <c r="F6">
-        <v>30.49512186901638</v>
+        <v>42.95111236096623</v>
       </c>
       <c r="G6">
-        <v>2.058409007737871</v>
+        <v>67.93313822039956</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.489538937012062</v>
       </c>
       <c r="I6">
-        <v>22.84433333808314</v>
+        <v>3.751925120354469</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>18.24875249442562</v>
       </c>
       <c r="K6">
-        <v>22.89200146205242</v>
+        <v>34.41612331509738</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
-        <v>11.58891203782726</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>7.474954832560313</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>2.50742568112174</v>
+        <v>8.557711484262152</v>
       </c>
       <c r="D7">
-        <v>3.300476752829665</v>
+        <v>5.864234653906161</v>
       </c>
       <c r="E7">
-        <v>26.47575525049904</v>
+        <v>11.14349169113602</v>
       </c>
       <c r="F7">
-        <v>31.05295144621375</v>
+        <v>43.85657381214473</v>
       </c>
       <c r="G7">
-        <v>2.054527320084754</v>
+        <v>69.45058018248355</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.609312154603801</v>
       </c>
       <c r="I7">
-        <v>23.21512093932372</v>
+        <v>3.866434316364178</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>18.57076040365727</v>
       </c>
       <c r="K7">
-        <v>23.49116006809237</v>
+        <v>35.08474203750023</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
-        <v>11.48863128222432</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>7.572651278635606</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>2.437754213441015</v>
+        <v>9.099881046096419</v>
       </c>
       <c r="D8">
-        <v>3.137319893674604</v>
+        <v>6.21537914686122</v>
       </c>
       <c r="E8">
-        <v>29.49178657486354</v>
+        <v>11.88630296096786</v>
       </c>
       <c r="F8">
-        <v>33.51725267856802</v>
+        <v>47.72619555605894</v>
       </c>
       <c r="G8">
-        <v>2.037663483754904</v>
+        <v>75.9151978122069</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.125857065750445</v>
       </c>
       <c r="I8">
-        <v>24.86962555751433</v>
+        <v>4.360414747747168</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>19.96062407985948</v>
       </c>
       <c r="K8">
-        <v>26.00980404191968</v>
+        <v>37.95901185177144</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
-        <v>11.0485814365405</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>7.990145151762245</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>2.297656789595897</v>
+        <v>10.12793402910718</v>
       </c>
       <c r="D9">
-        <v>2.846120435091334</v>
+        <v>6.864459464646147</v>
       </c>
       <c r="E9">
-        <v>35.03141371858656</v>
+        <v>13.25742057841469</v>
       </c>
       <c r="F9">
-        <v>38.35785280597069</v>
+        <v>54.72833555270444</v>
       </c>
       <c r="G9">
-        <v>2.005148183586689</v>
+        <v>87.53837851017514</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.09545657489606</v>
       </c>
       <c r="I9">
-        <v>28.17979781553486</v>
+        <v>5.291595477386004</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>22.51594430304366</v>
       </c>
       <c r="K9">
-        <v>30.52582615870942</v>
+        <v>43.19143816447157</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
-        <v>10.18468102411209</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>8.759855001404244</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>2.190933019547719</v>
+        <v>10.7883267319358</v>
       </c>
       <c r="D10">
-        <v>2.661406621906803</v>
+        <v>7.242883294940997</v>
       </c>
       <c r="E10">
-        <v>38.93955656944973</v>
+        <v>14.01979829110708</v>
       </c>
       <c r="F10">
-        <v>42.13928436439962</v>
+        <v>59.16855400710043</v>
       </c>
       <c r="G10">
-        <v>1.981131407527362</v>
+        <v>94.83564454880849</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.753342160199233</v>
       </c>
       <c r="I10">
-        <v>30.93188469758447</v>
+        <v>5.933839205982487</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>24.14143008125412</v>
       </c>
       <c r="K10">
-        <v>33.61691404571202</v>
+        <v>46.4609208086922</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
-        <v>9.538150150361572</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>9.174328950943472</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>2.141199178923964</v>
+        <v>10.63112101392778</v>
       </c>
       <c r="D11">
-        <v>2.58807195649276</v>
+        <v>6.925272647326118</v>
       </c>
       <c r="E11">
-        <v>40.70161639035996</v>
+        <v>12.8887271574292</v>
       </c>
       <c r="F11">
-        <v>43.91522954056137</v>
+        <v>58.82237755380167</v>
       </c>
       <c r="G11">
-        <v>1.970045823435784</v>
+        <v>94.00305277240531</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.218361385597373</v>
       </c>
       <c r="I11">
-        <v>32.27073296725545</v>
+        <v>6.051122104882433</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>23.90373334581871</v>
       </c>
       <c r="K11">
-        <v>34.98244527004156</v>
+        <v>45.77257588440697</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
-        <v>9.238375259360536</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>8.355432397514718</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>2.122170273495454</v>
+        <v>10.42510876441317</v>
       </c>
       <c r="D12">
-        <v>2.562387901826317</v>
+        <v>6.596083323832098</v>
       </c>
       <c r="E12">
-        <v>41.36867748460617</v>
+        <v>11.90907721366113</v>
       </c>
       <c r="F12">
-        <v>44.58866949280794</v>
+        <v>57.67673691200963</v>
       </c>
       <c r="G12">
-        <v>1.965811008287781</v>
+        <v>91.90967403064865</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.969982442767616</v>
       </c>
       <c r="I12">
-        <v>32.77793812168205</v>
+        <v>6.028008362999207</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>23.39072903197181</v>
       </c>
       <c r="K12">
-        <v>35.49458408427135</v>
+        <v>44.57655243991176</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
-        <v>9.123728361526245</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>7.648582323932238</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>2.126277528551615</v>
+        <v>10.14315988211776</v>
       </c>
       <c r="D13">
-        <v>2.567815862954162</v>
+        <v>6.216021385977717</v>
       </c>
       <c r="E13">
-        <v>41.22498397913454</v>
+        <v>10.98147031735275</v>
       </c>
       <c r="F13">
-        <v>44.44356584408454</v>
+        <v>55.73297303661724</v>
       </c>
       <c r="G13">
-        <v>1.966724949480716</v>
+        <v>88.51684664094321</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.87298343379706</v>
       </c>
       <c r="I13">
-        <v>32.66867347642314</v>
+        <v>5.891747035663167</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>22.5881161647477</v>
       </c>
       <c r="K13">
-        <v>35.3844902806121</v>
+        <v>42.80725228667517</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
-        <v>9.148475462994437</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>6.997054062412232</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>2.139637705425822</v>
+        <v>9.915971196083092</v>
       </c>
       <c r="D14">
-        <v>2.585913287835086</v>
+        <v>5.922489642815143</v>
       </c>
       <c r="E14">
-        <v>40.75648607680611</v>
+        <v>10.39053151721399</v>
       </c>
       <c r="F14">
-        <v>43.97060637211104</v>
+        <v>53.9722453640041</v>
       </c>
       <c r="G14">
-        <v>1.969698253736758</v>
+        <v>85.48411072225156</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.580601957274122</v>
       </c>
       <c r="I14">
-        <v>32.31244986411834</v>
+        <v>5.746176928459605</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>21.88021552659237</v>
       </c>
       <c r="K14">
-        <v>35.02467289065019</v>
+        <v>41.27397337386196</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
-        <v>9.228967821049725</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>6.59256925399761</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>2.147795056596754</v>
+        <v>9.836597897485493</v>
       </c>
       <c r="D15">
-        <v>2.59728964051751</v>
+        <v>5.835728222039121</v>
       </c>
       <c r="E15">
-        <v>40.46956262046449</v>
+        <v>10.23911800912122</v>
       </c>
       <c r="F15">
-        <v>43.68107129497627</v>
+        <v>53.34813831599309</v>
       </c>
       <c r="G15">
-        <v>1.971514212308348</v>
+        <v>84.42343758305981</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.736427942279368</v>
       </c>
       <c r="I15">
-        <v>32.09431567734497</v>
+        <v>5.684916087965795</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>21.63646888724749</v>
       </c>
       <c r="K15">
-        <v>34.80365797406421</v>
+        <v>40.75517782978182</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
-        <v>9.278114403208884</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>6.496220457498991</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>2.194157102151659</v>
+        <v>9.595646077507688</v>
       </c>
       <c r="D16">
-        <v>2.666457168886043</v>
+        <v>5.732850235591315</v>
       </c>
       <c r="E16">
-        <v>38.82425091621501</v>
+        <v>10.05047273099751</v>
       </c>
       <c r="F16">
-        <v>42.02327235427608</v>
+        <v>51.73521857793691</v>
       </c>
       <c r="G16">
-        <v>1.981851530594634</v>
+        <v>81.79082767948962</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.393931049604404</v>
       </c>
       <c r="I16">
-        <v>30.84435524036798</v>
+        <v>5.440209717974744</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>21.06057670408787</v>
       </c>
       <c r="K16">
-        <v>33.52692744908315</v>
+        <v>39.61095866663701</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
-        <v>9.557601606507431</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>6.427842544362605</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>2.22227557806315</v>
+        <v>9.526412666990286</v>
       </c>
       <c r="D17">
-        <v>2.711963011275556</v>
+        <v>5.811963824336901</v>
       </c>
       <c r="E17">
-        <v>37.81219610699113</v>
+        <v>10.20385241595158</v>
       </c>
       <c r="F17">
-        <v>41.00640689143563</v>
+        <v>51.45641166341266</v>
       </c>
       <c r="G17">
-        <v>1.988143106297119</v>
+        <v>81.42498684657859</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.695627076626769</v>
       </c>
       <c r="I17">
-        <v>30.07673859619614</v>
+        <v>5.328477054700719</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>21.0041315704128</v>
       </c>
       <c r="K17">
-        <v>32.7338651998635</v>
+        <v>39.56936932056626</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
-        <v>9.727401128214128</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>6.579226463280255</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>2.238338405307827</v>
+        <v>9.630407859814785</v>
       </c>
       <c r="D18">
-        <v>2.739100991515682</v>
+        <v>6.06981687389943</v>
       </c>
       <c r="E18">
-        <v>37.22845560440252</v>
+        <v>10.78575779412561</v>
       </c>
       <c r="F18">
-        <v>40.42118733983916</v>
+        <v>52.35566333750559</v>
       </c>
       <c r="G18">
-        <v>1.991747756452652</v>
+        <v>83.07879010776091</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.701317032661704</v>
       </c>
       <c r="I18">
-        <v>29.63461583862031</v>
+        <v>5.324460291751807</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>21.41070306524694</v>
       </c>
       <c r="K18">
-        <v>32.27383147141349</v>
+        <v>40.52633642009757</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
-        <v>9.824553958314933</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>7.009166933056253</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>2.243758940014249</v>
+        <v>9.887064101063975</v>
       </c>
       <c r="D19">
-        <v>2.748441215205208</v>
+        <v>6.43478276229858</v>
       </c>
       <c r="E19">
-        <v>37.03047494601546</v>
+        <v>11.78352962776905</v>
       </c>
       <c r="F19">
-        <v>40.22294901954385</v>
+        <v>54.01788383031916</v>
       </c>
       <c r="G19">
-        <v>1.992966184607113</v>
+        <v>86.02737221646517</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.791509509933144</v>
       </c>
       <c r="I19">
-        <v>29.4847890679515</v>
+        <v>5.411719623066593</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>22.11028183541757</v>
       </c>
       <c r="K19">
-        <v>32.11738055544164</v>
+        <v>42.10055489999601</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
-        <v>9.857369067408763</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>7.713152733900057</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>2.219293923331671</v>
+        <v>10.56824786857895</v>
       </c>
       <c r="D20">
-        <v>2.707015645381743</v>
+        <v>7.108412965767941</v>
       </c>
       <c r="E20">
-        <v>37.92008660676947</v>
+        <v>13.78206629407642</v>
       </c>
       <c r="F20">
-        <v>41.11468145730521</v>
+        <v>57.85302469285881</v>
       </c>
       <c r="G20">
-        <v>1.987474907741076</v>
+        <v>92.65636673555096</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.56953480694725</v>
       </c>
       <c r="I20">
-        <v>30.15850927368557</v>
+        <v>5.7573451040611</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>23.65001647676145</v>
       </c>
       <c r="K20">
-        <v>32.81868430972091</v>
+        <v>45.45017107343705</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
-        <v>9.709380696646328</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>9.061980132128225</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>2.135718981114336</v>
+        <v>11.16163304215539</v>
       </c>
       <c r="D21">
-        <v>2.580535705771863</v>
+        <v>7.47949792341833</v>
       </c>
       <c r="E21">
-        <v>40.89408143918437</v>
+        <v>14.63369407003654</v>
       </c>
       <c r="F21">
-        <v>44.1094884882914</v>
+        <v>61.5703671085469</v>
       </c>
       <c r="G21">
-        <v>1.968826051053053</v>
+        <v>98.80205557957822</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.115751955188108</v>
       </c>
       <c r="I21">
-        <v>32.41706597860096</v>
+        <v>6.277869206766165</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>25.03727451740097</v>
       </c>
       <c r="K21">
-        <v>35.13048658698401</v>
+        <v>48.27037626627387</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
-        <v>9.205358694450712</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>9.560185028254695</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>2.079950926880067</v>
+        <v>11.53641513362735</v>
       </c>
       <c r="D22">
-        <v>2.510434297629233</v>
+        <v>7.700787313879691</v>
       </c>
       <c r="E22">
-        <v>42.83799785617822</v>
+        <v>15.10159177391748</v>
       </c>
       <c r="F22">
-        <v>46.07308546194604</v>
+        <v>63.85720569696966</v>
       </c>
       <c r="G22">
-        <v>1.9564137316502</v>
+        <v>102.5682486310278</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.459771621594918</v>
       </c>
       <c r="I22">
-        <v>33.8951016083094</v>
+        <v>6.609961554703656</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>25.89124966192775</v>
       </c>
       <c r="K22">
-        <v>36.61303746562931</v>
+        <v>49.99823572489098</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
-        <v>8.869180938041044</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>9.817915385594658</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>2.109826726239767</v>
+        <v>11.35359634578025</v>
       </c>
       <c r="D23">
-        <v>2.54646645981679</v>
+        <v>7.59608000436309</v>
       </c>
       <c r="E23">
-        <v>41.79964477656989</v>
+        <v>14.8646171520227</v>
       </c>
       <c r="F23">
-        <v>45.02395998591415</v>
+        <v>62.70238402329502</v>
       </c>
       <c r="G23">
-        <v>1.963064383851956</v>
+        <v>100.6733368789662</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.280302476268533</v>
       </c>
       <c r="I23">
-        <v>33.10564989921153</v>
+        <v>6.43601095510193</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>25.4623425615615</v>
       </c>
       <c r="K23">
-        <v>35.8240228089531</v>
+        <v>49.13901099277873</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
-        <v>9.049344858867526</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>9.680594445791021</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>2.220642247778449</v>
+        <v>10.62806260979479</v>
       </c>
       <c r="D24">
-        <v>2.709249348053325</v>
+        <v>7.165940299160882</v>
       </c>
       <c r="E24">
-        <v>37.87131536935863</v>
+        <v>13.92946709090105</v>
       </c>
       <c r="F24">
-        <v>41.06573251951634</v>
+        <v>58.09184291366445</v>
       </c>
       <c r="G24">
-        <v>1.987777038112561</v>
+        <v>93.08248396487457</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.589986590055927</v>
       </c>
       <c r="I24">
-        <v>30.12154334617518</v>
+        <v>5.768857548345485</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>23.7517515006757</v>
       </c>
       <c r="K24">
-        <v>32.78035039896417</v>
+        <v>45.68611755069171</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
-        <v>9.717529165980174</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>9.150912261662247</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>2.336099091459215</v>
+        <v>9.827880144984807</v>
       </c>
       <c r="D25">
-        <v>2.920871566070904</v>
+        <v>6.674274588752224</v>
       </c>
       <c r="E25">
-        <v>33.566768242483</v>
+        <v>12.87796456338968</v>
       </c>
       <c r="F25">
-        <v>37.04643161478726</v>
+        <v>52.80705984612991</v>
       </c>
       <c r="G25">
-        <v>2.013928397484352</v>
+        <v>84.34751713551498</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.831799500489363</v>
       </c>
       <c r="I25">
-        <v>27.27650402101506</v>
+        <v>5.038848664188411</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>21.80627118622487</v>
       </c>
       <c r="K25">
-        <v>29.34648731260403</v>
+        <v>41.73176096271221</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
-        <v>10.41954968429043</v>
-      </c>
-      <c r="O25">
+        <v>8.557347720686813</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,988 +421,1138 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.265478549016668</v>
+        <v>7.910088423762263</v>
       </c>
       <c r="D2">
-        <v>6.3239157628681</v>
+        <v>5.164132644923992</v>
       </c>
       <c r="E2">
-        <v>12.0963991501857</v>
+        <v>10.88226922550756</v>
       </c>
       <c r="F2">
-        <v>48.81294783194195</v>
+        <v>42.77591397526107</v>
       </c>
       <c r="G2">
-        <v>77.73277523813138</v>
+        <v>66.68766068156719</v>
       </c>
       <c r="H2">
-        <v>3.267048580782636</v>
+        <v>2.946756239172526</v>
       </c>
       <c r="I2">
-        <v>4.495259252082361</v>
+        <v>4.143093026019939</v>
       </c>
       <c r="J2">
-        <v>20.35774902796464</v>
+        <v>18.38335929128265</v>
       </c>
       <c r="K2">
-        <v>38.78639100763944</v>
+        <v>32.90039562494363</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>26.60690068832454</v>
+      </c>
+      <c r="M2">
+        <v>23.02465243970516</v>
       </c>
       <c r="N2">
-        <v>8.099530740873309</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>8.175603376888912</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.843984840840861</v>
+        <v>7.562605755477142</v>
       </c>
       <c r="D3">
-        <v>6.052566375396339</v>
+        <v>5.005020889391182</v>
       </c>
       <c r="E3">
-        <v>11.52306752992272</v>
+        <v>10.44727169904535</v>
       </c>
       <c r="F3">
-        <v>45.84294354829897</v>
+        <v>40.36137907028603</v>
       </c>
       <c r="G3">
-        <v>72.78146236255999</v>
+        <v>62.67412681676722</v>
       </c>
       <c r="H3">
-        <v>2.86669383791875</v>
+        <v>2.62064736628367</v>
       </c>
       <c r="I3">
-        <v>4.111645236163888</v>
+        <v>3.843813576939259</v>
       </c>
       <c r="J3">
-        <v>19.28558782484253</v>
+        <v>17.53571641577674</v>
       </c>
       <c r="K3">
-        <v>36.57622993839982</v>
+        <v>31.23252518561616</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>25.6511372700299</v>
+      </c>
+      <c r="M3">
+        <v>21.4252841851944</v>
       </c>
       <c r="N3">
-        <v>7.777307753546942</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>7.8692284579021</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.576603183130159</v>
+        <v>7.344029459000086</v>
       </c>
       <c r="D4">
-        <v>5.878358526799286</v>
+        <v>4.902066553964517</v>
       </c>
       <c r="E4">
-        <v>11.15757997270538</v>
+        <v>10.16949201960286</v>
       </c>
       <c r="F4">
-        <v>43.93274956092078</v>
+        <v>38.80615925365166</v>
       </c>
       <c r="G4">
-        <v>69.58478828257076</v>
+        <v>60.08094959878974</v>
       </c>
       <c r="H4">
-        <v>2.614169682027363</v>
+        <v>2.414018762065418</v>
       </c>
       <c r="I4">
-        <v>3.870212296893676</v>
+        <v>3.654737853571534</v>
       </c>
       <c r="J4">
-        <v>18.60104532218777</v>
+        <v>16.99195515003893</v>
       </c>
       <c r="K4">
-        <v>35.15606370347242</v>
+        <v>30.1592857552572</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>25.02966889693811</v>
+      </c>
+      <c r="M4">
+        <v>20.40315203991754</v>
       </c>
       <c r="N4">
-        <v>7.573411228495335</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>7.675268314847286</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8.460152823248691</v>
+        <v>7.253274573527688</v>
       </c>
       <c r="D5">
-        <v>5.8015233566806</v>
+        <v>4.855697198967842</v>
       </c>
       <c r="E5">
-        <v>11.00161129090455</v>
+        <v>10.05058546626986</v>
       </c>
       <c r="F5">
-        <v>43.11289086400055</v>
+        <v>38.13650867553147</v>
       </c>
       <c r="G5">
-        <v>68.20749617309528</v>
+        <v>58.96006134353002</v>
       </c>
       <c r="H5">
-        <v>2.508464682036954</v>
+        <v>2.327335300983472</v>
       </c>
       <c r="I5">
-        <v>3.769516569311573</v>
+        <v>3.576055691669346</v>
       </c>
       <c r="J5">
-        <v>18.3076585774652</v>
+        <v>16.75756767025683</v>
       </c>
       <c r="K5">
-        <v>34.54247540710966</v>
+        <v>29.69273412013083</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>24.75473322877539</v>
+      </c>
+      <c r="M5">
+        <v>19.96413686332388</v>
       </c>
       <c r="N5">
-        <v>7.488932654744835</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>7.594988603515458</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>8.434267156667401</v>
+        <v>7.237774024798892</v>
       </c>
       <c r="D6">
-        <v>5.783796645801533</v>
+        <v>4.844116439932175</v>
       </c>
       <c r="E6">
-        <v>10.97105756318889</v>
+        <v>10.02697474431386</v>
       </c>
       <c r="F6">
-        <v>42.95111236096623</v>
+        <v>38.00233990633628</v>
       </c>
       <c r="G6">
-        <v>67.93313822039956</v>
+        <v>58.7328667469525</v>
       </c>
       <c r="H6">
-        <v>2.489538937012062</v>
+        <v>2.311831822795609</v>
       </c>
       <c r="I6">
-        <v>3.751925120354469</v>
+        <v>3.562782502763001</v>
       </c>
       <c r="J6">
-        <v>18.24875249442562</v>
+        <v>16.70961496528159</v>
       </c>
       <c r="K6">
-        <v>34.41612331509738</v>
+        <v>29.59363572125748</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>24.69268691938203</v>
+      </c>
+      <c r="M6">
+        <v>19.87483871186763</v>
       </c>
       <c r="N6">
-        <v>7.474954832560313</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>7.581803822083236</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>8.557711484262152</v>
+        <v>7.340943992885812</v>
       </c>
       <c r="D7">
-        <v>5.864234653906161</v>
+        <v>4.884818696323943</v>
       </c>
       <c r="E7">
-        <v>11.14349169113602</v>
+        <v>10.15902216989876</v>
       </c>
       <c r="F7">
-        <v>43.85657381214473</v>
+        <v>38.70323383823947</v>
       </c>
       <c r="G7">
-        <v>69.45058018248355</v>
+        <v>60.03997122226053</v>
       </c>
       <c r="H7">
-        <v>2.609312154603801</v>
+        <v>2.409107414256933</v>
       </c>
       <c r="I7">
-        <v>3.866434316364178</v>
+        <v>3.65187196928999</v>
       </c>
       <c r="J7">
-        <v>18.57076040365727</v>
+        <v>16.88564226131197</v>
       </c>
       <c r="K7">
-        <v>35.08474203750023</v>
+        <v>30.072204592058</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>24.96486705432259</v>
+      </c>
+      <c r="M7">
+        <v>20.33588057890736</v>
       </c>
       <c r="N7">
-        <v>7.572651278635606</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>7.673701644602438</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.099881046096419</v>
+        <v>7.787364460552247</v>
       </c>
       <c r="D8">
-        <v>6.21537914686122</v>
+        <v>5.077091362591711</v>
       </c>
       <c r="E8">
-        <v>11.88630296096786</v>
+        <v>10.72550872746081</v>
       </c>
       <c r="F8">
-        <v>47.72619555605894</v>
+        <v>41.77675284165644</v>
       </c>
       <c r="G8">
-        <v>75.9151978122069</v>
+        <v>65.44407945397637</v>
       </c>
       <c r="H8">
-        <v>3.125857065750445</v>
+        <v>2.828899547050869</v>
       </c>
       <c r="I8">
-        <v>4.360414747747168</v>
+        <v>4.035966071181566</v>
       </c>
       <c r="J8">
-        <v>19.96062407985948</v>
+        <v>17.81629343304873</v>
       </c>
       <c r="K8">
-        <v>37.95901185177144</v>
+        <v>32.18873952013185</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>26.17425987898152</v>
+      </c>
+      <c r="M8">
+        <v>22.36983745348128</v>
       </c>
       <c r="N8">
-        <v>7.990145151762245</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>8.068510089529923</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>10.12793402910718</v>
+        <v>8.628641307319352</v>
       </c>
       <c r="D9">
-        <v>6.864459464646147</v>
+        <v>5.452356471659647</v>
       </c>
       <c r="E9">
-        <v>13.25742057841469</v>
+        <v>11.76421689158482</v>
       </c>
       <c r="F9">
-        <v>54.72833555270444</v>
+        <v>47.4437712431509</v>
       </c>
       <c r="G9">
-        <v>87.53837851017514</v>
+        <v>74.89280505976663</v>
       </c>
       <c r="H9">
-        <v>4.09545657489606</v>
+        <v>3.611960947466163</v>
       </c>
       <c r="I9">
-        <v>5.291595477386004</v>
+        <v>4.755639222796199</v>
       </c>
       <c r="J9">
-        <v>22.51594430304366</v>
+        <v>19.78327124508039</v>
       </c>
       <c r="K9">
-        <v>43.19143816447157</v>
+        <v>36.1240771032627</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>28.40889336361579</v>
+      </c>
+      <c r="M9">
+        <v>26.16255895758066</v>
       </c>
       <c r="N9">
-        <v>8.759855001404244</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>8.797834877110676</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>10.7883267319358</v>
+        <v>9.219817848974621</v>
       </c>
       <c r="D10">
-        <v>7.242883294940997</v>
+        <v>5.626451829541612</v>
       </c>
       <c r="E10">
-        <v>14.01979829110708</v>
+        <v>12.32091137870006</v>
       </c>
       <c r="F10">
-        <v>59.16855400710043</v>
+        <v>50.85157187184692</v>
       </c>
       <c r="G10">
-        <v>94.83564454880849</v>
+        <v>81.14756199630517</v>
       </c>
       <c r="H10">
-        <v>4.753342160199233</v>
+        <v>4.132355070820462</v>
       </c>
       <c r="I10">
-        <v>5.933839205982487</v>
+        <v>5.24302858819632</v>
       </c>
       <c r="J10">
-        <v>24.14143008125412</v>
+        <v>20.63348098010294</v>
       </c>
       <c r="K10">
-        <v>46.4609208086922</v>
+        <v>38.43847649758654</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>29.64105778503905</v>
+      </c>
+      <c r="M10">
+        <v>28.47897510357251</v>
       </c>
       <c r="N10">
-        <v>9.174328950943472</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>9.172360925725402</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>10.63112101392778</v>
+        <v>9.480997020058153</v>
       </c>
       <c r="D11">
-        <v>6.925272647326118</v>
+        <v>5.308379882537413</v>
       </c>
       <c r="E11">
-        <v>12.8887271574292</v>
+        <v>11.30508393712292</v>
       </c>
       <c r="F11">
-        <v>58.82237755380167</v>
+        <v>50.1914067460712</v>
       </c>
       <c r="G11">
-        <v>94.00305277240531</v>
+        <v>81.16603999282593</v>
       </c>
       <c r="H11">
-        <v>5.218361385597373</v>
+        <v>4.634073407098716</v>
       </c>
       <c r="I11">
-        <v>6.051122104882433</v>
+        <v>5.333782122533474</v>
       </c>
       <c r="J11">
-        <v>23.90373334581871</v>
+        <v>19.5913957337042</v>
       </c>
       <c r="K11">
-        <v>45.77257588440697</v>
+        <v>37.54817577871481</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>28.76201364867097</v>
+      </c>
+      <c r="M11">
+        <v>28.03704853232439</v>
       </c>
       <c r="N11">
-        <v>8.355432397514718</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>8.28853540298681</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>10.42510876441317</v>
+        <v>9.61253853366949</v>
       </c>
       <c r="D12">
-        <v>6.596083323832098</v>
+        <v>5.045588308951512</v>
       </c>
       <c r="E12">
-        <v>11.90907721366113</v>
+        <v>10.48664960479309</v>
       </c>
       <c r="F12">
-        <v>57.67673691200963</v>
+        <v>49.08491392522314</v>
       </c>
       <c r="G12">
-        <v>91.90967403064865</v>
+        <v>79.78558490863954</v>
       </c>
       <c r="H12">
-        <v>5.969982442767616</v>
+        <v>5.481492765040542</v>
       </c>
       <c r="I12">
-        <v>6.028008362999207</v>
+        <v>5.320126873474853</v>
       </c>
       <c r="J12">
-        <v>23.39072903197181</v>
+        <v>18.78958275702781</v>
       </c>
       <c r="K12">
-        <v>44.57655243991176</v>
+        <v>36.44262228524827</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>27.86185597587954</v>
+      </c>
+      <c r="M12">
+        <v>27.27976511463185</v>
       </c>
       <c r="N12">
-        <v>7.648582323932238</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>7.52971922901647</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>10.14315988211776</v>
+        <v>9.661203008811251</v>
       </c>
       <c r="D13">
-        <v>6.216021385977717</v>
+        <v>4.802960523605223</v>
       </c>
       <c r="E13">
-        <v>10.98147031735275</v>
+        <v>9.778516226790124</v>
       </c>
       <c r="F13">
-        <v>55.73297303661724</v>
+        <v>47.53245180810199</v>
       </c>
       <c r="G13">
-        <v>88.51684664094321</v>
+        <v>76.91791868668064</v>
       </c>
       <c r="H13">
-        <v>6.87298343379706</v>
+        <v>6.491627285718733</v>
       </c>
       <c r="I13">
-        <v>5.891747035663167</v>
+        <v>5.225587539953346</v>
       </c>
       <c r="J13">
-        <v>22.5881161647477</v>
+        <v>18.23956723381847</v>
       </c>
       <c r="K13">
-        <v>42.80725228667517</v>
+        <v>35.05476403821395</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>26.85164677299653</v>
+      </c>
+      <c r="M13">
+        <v>26.19716080015572</v>
       </c>
       <c r="N13">
-        <v>6.997054062412232</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>6.835212187776452</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.915971196083092</v>
+        <v>9.667914824558514</v>
       </c>
       <c r="D14">
-        <v>5.922489642815143</v>
+        <v>4.637979354031402</v>
       </c>
       <c r="E14">
-        <v>10.39053151721399</v>
+        <v>9.377381777458165</v>
       </c>
       <c r="F14">
-        <v>53.9722453640041</v>
+        <v>46.20663184648529</v>
       </c>
       <c r="G14">
-        <v>85.48411072225156</v>
+        <v>74.17946427370524</v>
       </c>
       <c r="H14">
-        <v>7.580601957274122</v>
+        <v>7.269277251255354</v>
       </c>
       <c r="I14">
-        <v>5.746176928459605</v>
+        <v>5.12348995440138</v>
       </c>
       <c r="J14">
-        <v>21.88021552659237</v>
+        <v>17.94798520995996</v>
       </c>
       <c r="K14">
-        <v>41.27397337386196</v>
+        <v>33.92292348468233</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>26.07060821728855</v>
+      </c>
+      <c r="M14">
+        <v>25.26683176905093</v>
       </c>
       <c r="N14">
-        <v>6.59256925399761</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>6.404265335536182</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.836597897485493</v>
+        <v>9.651881584931848</v>
       </c>
       <c r="D15">
-        <v>5.835728222039121</v>
+        <v>4.596188175302978</v>
       </c>
       <c r="E15">
-        <v>10.23911800912122</v>
+        <v>9.282477634445236</v>
       </c>
       <c r="F15">
-        <v>53.34813831599309</v>
+        <v>45.76146843069002</v>
       </c>
       <c r="G15">
-        <v>84.42343758305981</v>
+        <v>73.16492513574713</v>
       </c>
       <c r="H15">
-        <v>7.736427942279368</v>
+        <v>7.444292170289363</v>
       </c>
       <c r="I15">
-        <v>5.684916087965795</v>
+        <v>5.080318838025262</v>
       </c>
       <c r="J15">
-        <v>21.63646888724749</v>
+        <v>17.90980555457676</v>
       </c>
       <c r="K15">
-        <v>40.75517782978182</v>
+        <v>33.56324941737381</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>25.83880195679281</v>
+      </c>
+      <c r="M15">
+        <v>24.95238941956509</v>
       </c>
       <c r="N15">
-        <v>6.496220457498991</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>6.30473828956601</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.595646077507688</v>
+        <v>9.420787813355957</v>
       </c>
       <c r="D16">
-        <v>5.732850235591315</v>
+        <v>4.597613148868236</v>
       </c>
       <c r="E16">
-        <v>10.05047273099751</v>
+        <v>9.149628005998292</v>
       </c>
       <c r="F16">
-        <v>51.73521857793691</v>
+        <v>44.76866694594126</v>
       </c>
       <c r="G16">
-        <v>81.79082767948962</v>
+        <v>70.34328645261341</v>
       </c>
       <c r="H16">
-        <v>7.393931049604404</v>
+        <v>7.136185402617746</v>
       </c>
       <c r="I16">
-        <v>5.440209717974744</v>
+        <v>4.900570100444635</v>
       </c>
       <c r="J16">
-        <v>21.06057670408787</v>
+        <v>18.20069876250217</v>
       </c>
       <c r="K16">
-        <v>39.61095866663701</v>
+        <v>32.93916622074601</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>25.57207380919932</v>
+      </c>
+      <c r="M16">
+        <v>24.24990189289297</v>
       </c>
       <c r="N16">
-        <v>6.427842544362605</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>6.269639508272151</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.526412666990286</v>
+        <v>9.225760701887767</v>
       </c>
       <c r="D17">
-        <v>5.811963824336901</v>
+        <v>4.682387144851165</v>
       </c>
       <c r="E17">
-        <v>10.20385241595158</v>
+        <v>9.236149044901238</v>
       </c>
       <c r="F17">
-        <v>51.45641166341266</v>
+        <v>44.689239865185</v>
       </c>
       <c r="G17">
-        <v>81.42498684657859</v>
+        <v>69.76666790965844</v>
       </c>
       <c r="H17">
-        <v>6.695627076626769</v>
+        <v>6.431334910625091</v>
       </c>
       <c r="I17">
-        <v>5.328477054700719</v>
+        <v>4.814923208409104</v>
       </c>
       <c r="J17">
-        <v>21.0041315704128</v>
+        <v>18.48714351949519</v>
       </c>
       <c r="K17">
-        <v>39.56936932056626</v>
+        <v>33.04983512356308</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>25.77471184697431</v>
+      </c>
+      <c r="M17">
+        <v>24.19563757643931</v>
       </c>
       <c r="N17">
-        <v>6.579226463280255</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>6.460174614017195</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.630407859814785</v>
+        <v>9.056658118261593</v>
       </c>
       <c r="D18">
-        <v>6.06981687389943</v>
+        <v>4.872067454579124</v>
       </c>
       <c r="E18">
-        <v>10.78575779412561</v>
+        <v>9.651904296222606</v>
       </c>
       <c r="F18">
-        <v>52.35566333750559</v>
+        <v>45.49857156020089</v>
       </c>
       <c r="G18">
-        <v>83.07879010776091</v>
+        <v>71.02715730154632</v>
       </c>
       <c r="H18">
-        <v>5.701317032661704</v>
+        <v>5.385272461686362</v>
       </c>
       <c r="I18">
-        <v>5.324460291751807</v>
+        <v>4.805840756559123</v>
       </c>
       <c r="J18">
-        <v>21.41070306524694</v>
+        <v>18.96049764729092</v>
       </c>
       <c r="K18">
-        <v>40.52633642009757</v>
+        <v>33.89364220784514</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>26.47083537115941</v>
+      </c>
+      <c r="M18">
+        <v>24.76165822598164</v>
       </c>
       <c r="N18">
-        <v>7.009166933056253</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>6.937099901473808</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.887064101063975</v>
+        <v>8.963340778755416</v>
       </c>
       <c r="D19">
-        <v>6.43478276229858</v>
+        <v>5.127996825338509</v>
       </c>
       <c r="E19">
-        <v>11.78352962776905</v>
+        <v>10.44715897341262</v>
       </c>
       <c r="F19">
-        <v>54.01788383031916</v>
+        <v>46.8817292872933</v>
       </c>
       <c r="G19">
-        <v>86.02737221646517</v>
+        <v>73.4289952825437</v>
       </c>
       <c r="H19">
-        <v>4.791509509933144</v>
+        <v>4.376559459849301</v>
       </c>
       <c r="I19">
-        <v>5.411719623066593</v>
+        <v>4.866181176637615</v>
       </c>
       <c r="J19">
-        <v>22.11028183541757</v>
+        <v>19.56560289061862</v>
       </c>
       <c r="K19">
-        <v>42.10055489999601</v>
+        <v>35.18054161558341</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>27.45174328200816</v>
+      </c>
+      <c r="M19">
+        <v>25.71992535571719</v>
       </c>
       <c r="N19">
-        <v>7.713152733900057</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>7.686784576690012</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>10.56824786857895</v>
+        <v>9.070058776275717</v>
       </c>
       <c r="D20">
-        <v>7.108412965767941</v>
+        <v>5.572802182909744</v>
       </c>
       <c r="E20">
-        <v>13.78206629407642</v>
+        <v>12.13980817342529</v>
       </c>
       <c r="F20">
-        <v>57.85302469285881</v>
+        <v>49.92269741913613</v>
       </c>
       <c r="G20">
-        <v>92.65636673555096</v>
+        <v>79.05296628817048</v>
       </c>
       <c r="H20">
-        <v>4.56953480694725</v>
+        <v>3.990595864631134</v>
       </c>
       <c r="I20">
-        <v>5.7573451040611</v>
+        <v>5.116758139333142</v>
       </c>
       <c r="J20">
-        <v>23.65001647676145</v>
+        <v>20.58777492889955</v>
       </c>
       <c r="K20">
-        <v>45.45017107343705</v>
+        <v>37.76616259795755</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>29.26752380793508</v>
+      </c>
+      <c r="M20">
+        <v>27.82344934774919</v>
       </c>
       <c r="N20">
-        <v>9.061980132128225</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>9.07479604735409</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>11.16163304215539</v>
+        <v>9.507382158291783</v>
       </c>
       <c r="D21">
-        <v>7.47949792341833</v>
+        <v>5.663233844052407</v>
       </c>
       <c r="E21">
-        <v>14.63369407003654</v>
+        <v>12.82234964886071</v>
       </c>
       <c r="F21">
-        <v>61.5703671085469</v>
+        <v>52.28168652522203</v>
       </c>
       <c r="G21">
-        <v>98.80205557957822</v>
+        <v>85.4049670316482</v>
       </c>
       <c r="H21">
-        <v>5.115751955188108</v>
+        <v>4.404953748421976</v>
       </c>
       <c r="I21">
-        <v>6.277869206766165</v>
+        <v>5.490572390161629</v>
       </c>
       <c r="J21">
-        <v>25.03727451740097</v>
+        <v>20.14814173641538</v>
       </c>
       <c r="K21">
-        <v>48.27037626627387</v>
+        <v>39.43150410474028</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>30.13969281201713</v>
+      </c>
+      <c r="M21">
+        <v>29.50720487325407</v>
       </c>
       <c r="N21">
-        <v>9.560185028254695</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>9.530336999943099</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>11.53641513362735</v>
+        <v>9.794141133557483</v>
       </c>
       <c r="D22">
-        <v>7.700787313879691</v>
+        <v>5.702088419207895</v>
       </c>
       <c r="E22">
-        <v>15.10159177391748</v>
+        <v>13.19187692820754</v>
       </c>
       <c r="F22">
-        <v>63.85720569696966</v>
+        <v>53.68718909456761</v>
       </c>
       <c r="G22">
-        <v>102.5682486310278</v>
+        <v>89.39035585873279</v>
       </c>
       <c r="H22">
-        <v>5.459771621594918</v>
+        <v>4.663268046141734</v>
       </c>
       <c r="I22">
-        <v>6.609961554703656</v>
+        <v>5.725959532572984</v>
       </c>
       <c r="J22">
-        <v>25.89124966192775</v>
+        <v>19.7612272354774</v>
       </c>
       <c r="K22">
-        <v>49.99823572489098</v>
+        <v>40.41583417991853</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>30.63689266791026</v>
+      </c>
+      <c r="M22">
+        <v>30.52202922285894</v>
       </c>
       <c r="N22">
-        <v>9.817915385594658</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>9.756431752986297</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>11.35359634578025</v>
+        <v>9.642618763092054</v>
       </c>
       <c r="D23">
-        <v>7.59608000436309</v>
+        <v>5.70568332342831</v>
       </c>
       <c r="E23">
-        <v>14.8646171520227</v>
+        <v>13.00212739024198</v>
       </c>
       <c r="F23">
-        <v>62.70238402329502</v>
+        <v>53.06388458701377</v>
       </c>
       <c r="G23">
-        <v>100.6733368789662</v>
+        <v>87.215235235572</v>
       </c>
       <c r="H23">
-        <v>5.280302476268533</v>
+        <v>4.530545174868553</v>
       </c>
       <c r="I23">
-        <v>6.43601095510193</v>
+        <v>5.603516395958642</v>
       </c>
       <c r="J23">
-        <v>25.4623425615615</v>
+        <v>20.1556347496151</v>
       </c>
       <c r="K23">
-        <v>49.13901099277873</v>
+        <v>39.99516944987285</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>30.44887376268618</v>
+      </c>
+      <c r="M23">
+        <v>30.06081334005866</v>
       </c>
       <c r="N23">
-        <v>9.680594445791021</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>9.637893775448077</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>10.62806260979479</v>
+        <v>9.063702291002425</v>
       </c>
       <c r="D24">
-        <v>7.165940299160882</v>
+        <v>5.617199917475442</v>
       </c>
       <c r="E24">
-        <v>13.92946709090105</v>
+        <v>12.27001783662463</v>
       </c>
       <c r="F24">
-        <v>58.09184291366445</v>
+        <v>50.13104330022191</v>
       </c>
       <c r="G24">
-        <v>93.08248396487457</v>
+        <v>79.40411629800221</v>
       </c>
       <c r="H24">
-        <v>4.589986590055927</v>
+        <v>4.006901059880041</v>
       </c>
       <c r="I24">
-        <v>5.768857548345485</v>
+        <v>5.122343515078741</v>
       </c>
       <c r="J24">
-        <v>23.7517515006757</v>
+        <v>20.68654900117388</v>
       </c>
       <c r="K24">
-        <v>45.68611755069171</v>
+        <v>37.96940278126673</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>29.42527068549063</v>
+      </c>
+      <c r="M24">
+        <v>27.97224448439805</v>
       </c>
       <c r="N24">
-        <v>9.150912261662247</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>9.166699152499104</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.827880144984807</v>
+        <v>8.406037372243166</v>
       </c>
       <c r="D25">
-        <v>6.674274588752224</v>
+        <v>5.347001146763604</v>
       </c>
       <c r="E25">
-        <v>12.87796456338968</v>
+        <v>11.47449939004402</v>
       </c>
       <c r="F25">
-        <v>52.80705984612991</v>
+        <v>45.92659049400488</v>
       </c>
       <c r="G25">
-        <v>84.34751713551498</v>
+        <v>72.19205552482708</v>
       </c>
       <c r="H25">
-        <v>3.831799500489363</v>
+        <v>3.401606029337709</v>
       </c>
       <c r="I25">
-        <v>5.038848664188411</v>
+        <v>4.564668984719916</v>
       </c>
       <c r="J25">
-        <v>21.80627118622487</v>
+        <v>19.33527636124684</v>
       </c>
       <c r="K25">
-        <v>41.73176096271221</v>
+        <v>35.04569067430013</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>27.79072384458804</v>
+      </c>
+      <c r="M25">
+        <v>25.13057483253118</v>
       </c>
       <c r="N25">
-        <v>8.557347720686813</v>
-      </c>
-      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>8.608305682209995</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
